--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_MCPS_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_MCPS_General.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.5831857994409814</v>
+        <v>0.7332147692668679</v>
       </c>
       <c r="D2">
-        <v>0.559794328117448</v>
+        <v>0.4684530523185102</v>
       </c>
       <c r="E2">
         <v>1.643759960555092</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>2.05238826836475</v>
+        <v>1.865406320549269</v>
       </c>
       <c r="D3">
-        <v>0.04018348891537737</v>
+        <v>0.07077305411015056</v>
       </c>
       <c r="E3">
         <v>1.643759960555092</v>
@@ -479,7 +479,7 @@
         <v>1.371580670007978</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>60</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.4991096326370595</v>
+        <v>0.5901358428226466</v>
       </c>
       <c r="D4">
-        <v>0.6177239403031991</v>
+        <v>0.5590016776715054</v>
       </c>
       <c r="E4">
         <v>1.643759960555092</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>1.860843483920152</v>
+        <v>2.126580489148894</v>
       </c>
       <c r="D5">
-        <v>0.06282448494573489</v>
+        <v>0.04079462919154664</v>
       </c>
       <c r="E5">
         <v>1.643759960555092</v>
@@ -531,7 +531,7 @@
         <v>1.390641050859759</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>200</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>1.769354358398967</v>
+        <v>1.845686814536893</v>
       </c>
       <c r="D6">
-        <v>0.07689523077641747</v>
+        <v>0.07366069461930147</v>
       </c>
       <c r="E6">
         <v>1.56378804108945</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.03335352847305258</v>
+        <v>-0.03727037138849371</v>
       </c>
       <c r="D7">
-        <v>0.9733939889462462</v>
+        <v>0.9704874042606013</v>
       </c>
       <c r="E7">
         <v>1.56378804108945</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>1.181142126284023</v>
+        <v>1.93053244498202</v>
       </c>
       <c r="D8">
-        <v>0.2376020111531327</v>
+        <v>0.06191546590421226</v>
       </c>
       <c r="E8">
         <v>1.56378804108945</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-1.589735226785412</v>
+        <v>-1.220976153158016</v>
       </c>
       <c r="D9">
-        <v>0.1119572330636225</v>
+        <v>0.2304948034534746</v>
       </c>
       <c r="E9">
         <v>1.371580670007978</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.1235578968736475</v>
+        <v>-0.1934813693309636</v>
       </c>
       <c r="D10">
-        <v>0.9016702582651881</v>
+        <v>0.8477332530457553</v>
       </c>
       <c r="E10">
         <v>1.371580670007978</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>1.114547035449917</v>
+        <v>1.402335401157454</v>
       </c>
       <c r="D11">
-        <v>0.2650977329371884</v>
+        <v>0.169880032411593</v>
       </c>
       <c r="E11">
         <v>1.568630467698966</v>
